--- a/music/Test.xlsx
+++ b/music/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>xgb</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,6 +162,95 @@
   'nthread':10,
   'seed':200
  }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVR().fit(x, y)</t>
+  </si>
+  <si>
+    <t>svn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LassoLars</t>
+  </si>
+  <si>
+    <t>NuSVR</t>
+  </si>
+  <si>
+    <t>clf = NuSVR(C = 5.0).fit(x, y)</t>
+  </si>
+  <si>
+    <r>
+      <t>过去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>play</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collect, down</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomForestRegressor</t>
+  </si>
+  <si>
+    <t>clf = RandomForestRegressor(n_estimators=300,max_leaf_nodes =20, max_depth=6, random_state=400).fit(x, y)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -228,6 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,22 +622,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="39.625" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="35.125" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
-    <col min="6" max="6" width="54" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="35.125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -555,48 +646,150 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>42508</v>
       </c>
       <c r="B2">
         <v>4795.9395734500004</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>4676.3396099900001</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>4675.6256727700002</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>5020.0910974199996</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5024.7470780000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>4847.4781324699998</v>
+      </c>
+      <c r="C5">
+        <v>4846</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>4602.7969440300003</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>5055.1081511599996</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>5067.6251970200001</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>5102.1746114799998</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>5047.7879932699998</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/music/Test.xlsx
+++ b/music/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>xgb</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -622,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,6 +787,28 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>4687.0776270200004</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12">
+        <v>5043.2961596200003</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/music/Test.xlsx
+++ b/music/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="333" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="332" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>time</t>
   </si>
@@ -229,14 +229,59 @@
   <si>
     <t>pre = 0.2*xgbpredict(xtrain, ytrain, x_pre) + 0.2*svntrain(xtrain, ytrain, x_pre) + 0.1*gbdrtrain(xtrain, ytrain, x_pre) + 0.2*nusvrtrain(xtrain, ytrain, x_pre) + 0.2*rfrtrain(xtrain, ytrain, x_pre) + 0.05*LassoLarstrain(xtrain, ytrain, x_pre) + 0.05*bayesiantrain(xtrain, ytrain, x_pre)</t>
   </si>
+  <si>
+    <t>60days</t>
+  </si>
+  <si>
+    <t>rfr</t>
+  </si>
+  <si>
+    <t>gdbr</t>
+  </si>
+  <si>
+    <t>bayesiantrain</t>
+  </si>
+  <si>
+    <t>LassoLarstrain</t>
+  </si>
+  <si>
+    <t>voting7</t>
+  </si>
+  <si>
+    <t>voting5</t>
+  </si>
+  <si>
+    <t>Rfr a more feature</t>
+  </si>
+  <si>
+    <t>sum(ts[i:i+ostep/2])/float(sum(ts[i+ostep/2:i+ostep]))</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x[i, step+2*ostep] = sum(ts[i:i+ostep/2])/float(sum(ts[i+ostep/2:i+ostep]))
+		x[i, step+2*ostep+1] = np.mean(ts[i:i+ostep])
+		x[i, step+2*ostep+2] = np.var(ts[i:i+ostep])</t>
+  </si>
+  <si>
+    <t>gdbr huber</t>
+  </si>
+  <si>
+    <t>voting6</t>
+  </si>
+  <si>
+    <t>pre = 0.3*xgbpredict(xtrain, ytrain, x_pre) + 0.3*rfrtrain(xtrain, ytrain, x_pre) + 0.1*LassoLarstrain(xtrain, ytrain, x_pre) + 0.1*bayesiantrain(xtrain, ytrain, x_pre) + 0.1*gbdrtrain(xtrain, ytrain, x_pre) + 0.1*nusvrtrain(xtrain, ytrain, x_pre)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -269,12 +314,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -311,7 +362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,6 +383,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -341,6 +400,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -349,10 +468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -360,11 +479,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.73711340206186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6237113402062"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8762886597938"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8762886597938"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.1237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.0051546391753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.73711340206186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9278350515464"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.72164948453608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.7474226804124"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5927835051546"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.91237113402062"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.73711340206186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.1030927835052"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.73711340206186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,6 +672,169 @@
       </c>
       <c r="G13" s="0" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>42509</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>6211.66090001</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>6272.27211969</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="6" t="n">
+        <v>6341.01740278</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>6368.4667557</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="6" t="n">
+        <v>6170.95208977</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
+        <v>5962.76937383</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
+        <v>6046.15477553</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6" t="n">
+        <v>6198.43637874</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="n">
+        <v>5931.19843827</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="n">
+        <v>6364.74495802</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
+        <v>6344.52769543</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="n">
+        <v>6382.7695223</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="n">
+        <v>6375.2930718</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="n">
+        <v>6322.97417199</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="n">
+        <v>6394.14473637</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/music/Test.xlsx
+++ b/music/Test.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vbox\share\comp\music\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="332" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="332"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>time</t>
   </si>
@@ -39,7 +43,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">过去的</t>
+      <t>过去的</t>
     </r>
     <r>
       <rPr>
@@ -49,7 +53,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">14</t>
+      <t>14</t>
     </r>
     <r>
       <rPr>
@@ -59,7 +63,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">天作为</t>
+      <t>天作为</t>
     </r>
     <r>
       <rPr>
@@ -69,7 +73,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">featute</t>
+      <t>featute</t>
     </r>
   </si>
   <si>
@@ -91,7 +95,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">过去</t>
+      <t>过去</t>
     </r>
     <r>
       <rPr>
@@ -101,7 +105,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">14</t>
+      <t>14</t>
     </r>
     <r>
       <rPr>
@@ -111,7 +115,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">天</t>
+      <t>天</t>
     </r>
     <r>
       <rPr>
@@ -121,7 +125,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">play</t>
+      <t>play</t>
     </r>
     <r>
       <rPr>
@@ -131,7 +135,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -141,7 +145,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">collect, down</t>
+      <t>collect, down</t>
     </r>
   </si>
   <si>
@@ -164,7 +168,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">过去</t>
+      <t>过去</t>
     </r>
     <r>
       <rPr>
@@ -174,7 +178,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">28</t>
+      <t>28</t>
     </r>
     <r>
       <rPr>
@@ -184,7 +188,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">天</t>
+      <t>天</t>
     </r>
     <r>
       <rPr>
@@ -194,7 +198,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">play</t>
+      <t>play</t>
     </r>
     <r>
       <rPr>
@@ -204,7 +208,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -214,7 +218,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">collect, down</t>
+      <t>collect, down</t>
     </r>
   </si>
   <si>
@@ -272,18 +276,25 @@
   </si>
   <si>
     <t>pre = 0.3*xgbpredict(xtrain, ytrain, x_pre) + 0.3*rfrtrain(xtrain, ytrain, x_pre) + 0.1*LassoLarstrain(xtrain, ytrain, x_pre) + 0.1*bayesiantrain(xtrain, ytrain, x_pre) + 0.1*gbdrtrain(xtrain, ytrain, x_pre) + 0.1*nusvrtrain(xtrain, ytrain, x_pre)</t>
+  </si>
+  <si>
+    <t>rfr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>genmutilfeaturemoretopk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -292,23 +303,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -329,7 +331,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -337,69 +339,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -458,65 +416,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.73711340206186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6237113402062"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8762886597938"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9278350515464"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.72164948453608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.7474226804124"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5927835051546"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.91237113402062"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.73711340206186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.1030927835052"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.73711340206186"/>
+    <col min="1" max="1" width="8.75"/>
+    <col min="2" max="2" width="39.625"/>
+    <col min="3" max="3" width="37.875"/>
+    <col min="4" max="4" width="19.875"/>
+    <col min="5" max="5" width="7.75"/>
+    <col min="6" max="6" width="35.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625"/>
+    <col min="8" max="8" width="4.875"/>
+    <col min="9" max="10" width="8.75"/>
+    <col min="11" max="11" width="26.125"/>
+    <col min="12" max="1025" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>42508</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>4795.93957345</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2">
+        <v>4795.9395734500004</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -526,14 +758,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
-        <v>4676.33960999</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>4675.62567277</v>
-      </c>
-      <c r="D3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>4676.3396099900001</v>
+      </c>
+      <c r="C3">
+        <v>4675.6256727700002</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -543,14 +775,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
-        <v>5020.09109742</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>5024.747078</v>
-      </c>
-      <c r="D4" s="0" t="s">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>5020.0910974199996</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5024.7470780000003</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -560,14 +792,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
-        <v>4847.47813247</v>
-      </c>
-      <c r="C5" s="0" t="n">
+    <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>4847.4781324699998</v>
+      </c>
+      <c r="C5">
         <v>4846</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -577,9 +809,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
-        <v>4602.79694403</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>4602.7969440300003</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -588,9 +820,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
-        <v>5055.10815116</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>5055.1081511599996</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -599,9 +831,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
-        <v>5067.62519702</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>5067.6251970200001</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -613,9 +845,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
-        <v>5102.17461148</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>5102.1746114799998</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -624,9 +856,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
-        <v>5047.78799327</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>5047.7879932699998</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>18</v>
@@ -634,216 +866,221 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
-        <v>4687.07762702</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>4687.0776270200004</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
-        <v>5043.29615962</v>
-      </c>
-      <c r="D12" s="0" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12">
+        <v>5043.2961596200003</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
-        <v>5105.33976743</v>
-      </c>
-      <c r="D13" s="0" t="s">
+    <row r="13" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>5105.3397674300004</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
         <v>42509</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>6211.66090001</v>
+      <c r="C24" s="6">
+        <v>6211.6609000099998</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>28</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>6272.27211969</v>
-      </c>
-      <c r="H24" s="0" t="n">
+      <c r="G24">
+        <v>6272.2721196900002</v>
+      </c>
+      <c r="H24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="6" t="n">
-        <v>6341.01740278</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C25" s="6">
+        <v>6341.0174027800003</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>28</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>6368.4667557</v>
-      </c>
-      <c r="H25" s="0" t="n">
+      <c r="G25">
+        <v>6368.4667557000002</v>
+      </c>
+      <c r="H25">
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="6" t="n">
-        <v>6170.95208977</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="6">
+        <v>6170.9520897700004</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>28</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="n">
-        <v>5962.76937383</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C27">
+        <v>5962.7693738300004</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>28</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="n">
-        <v>6046.15477553</v>
-      </c>
-      <c r="D28" s="0" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C28">
+        <v>6046.1547755299998</v>
+      </c>
+      <c r="D28" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="6" t="n">
-        <v>6198.43637874</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C29" s="6">
+        <v>6198.4363787399998</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="n">
-        <v>5931.19843827</v>
-      </c>
-      <c r="D30" s="0" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C30">
+        <v>5931.1984382700002</v>
+      </c>
+      <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C31">
         <v>6364.74495802</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
-        <v>6344.52769543</v>
-      </c>
-      <c r="D32" s="0" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C32">
+        <v>6344.5276954299998</v>
+      </c>
+      <c r="D32" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>28</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="n">
-        <v>6382.7695223</v>
-      </c>
-      <c r="D41" s="0" t="s">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C41">
+        <v>6382.7695223000001</v>
+      </c>
+      <c r="D41" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>14</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="n">
-        <v>6375.2930718</v>
-      </c>
-      <c r="D42" s="0" t="s">
+    <row r="42" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C42">
+        <v>6375.2930717999998</v>
+      </c>
+      <c r="D42" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="n">
-        <v>6322.97417199</v>
-      </c>
-      <c r="D48" s="0" t="s">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C48">
+        <v>6322.9741719900003</v>
+      </c>
+      <c r="D48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="n">
-        <v>6394.14473637</v>
-      </c>
-      <c r="D49" s="0" t="s">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C49">
+        <v>6394.1447363699999</v>
+      </c>
+      <c r="D49" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C56">
+        <v>6371.0478764</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/music/Test.xlsx
+++ b/music/Test.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>time</t>
   </si>
@@ -285,6 +285,14 @@
     <t>genmutilfeaturemoretopk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>past 60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +302,7 @@
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="177" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -315,8 +323,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +345,11 @@
         <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -339,10 +360,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,9 +376,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1037,7 +1063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C42">
         <v>6375.2930717999998</v>
       </c>
@@ -1056,7 +1082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C49">
         <v>6394.1447363699999</v>
       </c>
@@ -1067,7 +1093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C56">
         <v>6371.0478764</v>
       </c>
@@ -1076,6 +1102,17 @@
       </c>
       <c r="F56" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="7">
+        <v>6447.78018686</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
